--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\supev\Documents\EOQ\udemy\Excel Course\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7519E86A-745D-4334-ADBF-015375D72238}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24B9FA2D-394F-4FB2-BD53-2972E66AB11A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{29E645FF-D4B7-43DA-9CB1-4EA40314491C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>Monthly Budget</t>
   </si>
@@ -72,6 +72,9 @@
   </si>
   <si>
     <t>AVERAGE</t>
+  </si>
+  <si>
+    <t>COUNT</t>
   </si>
 </sst>
 </file>
@@ -79,7 +82,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="mmm\-yyyy"/>
+    <numFmt numFmtId="164" formatCode="mmm\-yyyy"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -112,7 +115,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -450,13 +453,14 @@
   <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="12.44140625" customWidth="1"/>
     <col min="2" max="2" width="12.21875" customWidth="1"/>
-    <col min="3" max="3" width="13.21875" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" customWidth="1"/>
     <col min="4" max="4" width="11.21875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -521,11 +525,11 @@
         <v>100</v>
       </c>
       <c r="E5">
-        <f>SUM(B5:D5)</f>
+        <f t="shared" ref="E5:E8" si="0">SUM(B5:D5)</f>
         <v>350</v>
       </c>
       <c r="F5">
-        <f>E5/$E$9</f>
+        <f t="shared" ref="F5:F9" si="1">E5/$E$9</f>
         <v>6.8292682926829273E-2</v>
       </c>
     </row>
@@ -543,11 +547,11 @@
         <v>175</v>
       </c>
       <c r="E6">
-        <f>SUM(B6:D6)</f>
+        <f t="shared" si="0"/>
         <v>525</v>
       </c>
       <c r="F6">
-        <f>E6/$E$9</f>
+        <f t="shared" si="1"/>
         <v>0.1024390243902439</v>
       </c>
     </row>
@@ -565,11 +569,11 @@
         <v>350</v>
       </c>
       <c r="E7">
-        <f>SUM(B7:D7)</f>
+        <f t="shared" si="0"/>
         <v>925</v>
       </c>
       <c r="F7">
-        <f>E7/$E$9</f>
+        <f t="shared" si="1"/>
         <v>0.18048780487804877</v>
       </c>
     </row>
@@ -587,11 +591,11 @@
         <v>125</v>
       </c>
       <c r="E8">
-        <f>SUM(B8:D8)</f>
+        <f t="shared" si="0"/>
         <v>325</v>
       </c>
       <c r="F8">
-        <f>E8/$E$9</f>
+        <f t="shared" si="1"/>
         <v>6.3414634146341464E-2</v>
       </c>
     </row>
@@ -604,19 +608,19 @@
         <v>1675</v>
       </c>
       <c r="C9">
-        <f>SUM(C4:C8)</f>
+        <f t="shared" ref="C9:E9" si="2">SUM(C4:C8)</f>
         <v>1700</v>
       </c>
       <c r="D9">
-        <f>SUM(D4:D8)</f>
+        <f t="shared" si="2"/>
         <v>1750</v>
       </c>
       <c r="E9">
-        <f>SUM(E4:E8)</f>
+        <f t="shared" si="2"/>
         <v>5125</v>
       </c>
       <c r="F9">
-        <f>E9/$E$9</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -651,15 +655,15 @@
         <v>1000</v>
       </c>
       <c r="C12">
-        <f t="shared" ref="C12:E12" si="0">MAX(C4:C8)</f>
+        <f t="shared" ref="C12:E12" si="3">MAX(C4:C8)</f>
         <v>1000</v>
       </c>
       <c r="D12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1000</v>
       </c>
       <c r="E12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>3000</v>
       </c>
     </row>
@@ -667,6 +671,43 @@
       <c r="A13" t="s">
         <v>11</v>
       </c>
+      <c r="B13">
+        <f>AVERAGE(B4:B8)</f>
+        <v>335</v>
+      </c>
+      <c r="C13">
+        <f>AVERAGE(C4:C8)</f>
+        <v>340</v>
+      </c>
+      <c r="D13">
+        <f>AVERAGE(D4:D8)</f>
+        <v>350</v>
+      </c>
+      <c r="E13">
+        <f>AVERAGE(E4:E8)</f>
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <f>COUNT(B4:B8)</f>
+        <v>5</v>
+      </c>
+      <c r="C14">
+        <f>COUNT(C4:C8)</f>
+        <v>5</v>
+      </c>
+      <c r="D14">
+        <f>COUNT(D4:D8)</f>
+        <v>5</v>
+      </c>
+      <c r="E14">
+        <f>COUNT(E4:E8)</f>
+        <v>5</v>
+      </c>
     </row>
     <row r="17" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J17" s="1"/>
@@ -674,5 +715,8 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <ignoredErrors>
+    <ignoredError sqref="B10:D14 B3:F3 B5:D8 B4:D4" formulaRange="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\supev\Documents\EOQ\udemy\Excel Course\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24B9FA2D-394F-4FB2-BD53-2972E66AB11A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEE00FC3-49B6-481F-A461-4FEE47D2EE1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{29E645FF-D4B7-43DA-9CB1-4EA40314491C}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Monthly Budget" sheetId="1" r:id="rId1"/>
+    <sheet name="Copy Exercise" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="14">
   <si>
     <t>Monthly Budget</t>
   </si>
@@ -75,16 +76,21 @@
   </si>
   <si>
     <t>COUNT</t>
+  </si>
+  <si>
+    <t>Water</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="3">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="mmm\-yyyy"/>
+    <numFmt numFmtId="165" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -92,16 +98,65 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="24"/>
+      <color theme="4"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.749961851863155"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -109,18 +164,75 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="3" tint="0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="3"/>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="2" xfId="3" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="4">
+    <cellStyle name="Awesome Style" xfId="3" xr:uid="{EDE616B5-720B-4BDB-9AA7-629967DA75C5}"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -450,273 +562,612 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5CA4F5C-5295-41A1-8BD5-887E5EC27C4D}">
-  <dimension ref="A1:J17"/>
+  <dimension ref="B2:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.44140625" customWidth="1"/>
-    <col min="2" max="2" width="12.21875" customWidth="1"/>
-    <col min="3" max="3" width="13.33203125" customWidth="1"/>
-    <col min="4" max="4" width="11.21875" customWidth="1"/>
+    <col min="1" max="1" width="5.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.21875" customWidth="1"/>
+    <col min="3" max="3" width="12.21875" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="8" width="11.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="2" spans="2:8" ht="31.8" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="B2" s="8" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+    </row>
+    <row r="3" spans="2:8" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="2:8" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B4" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="1">
+      <c r="C4" s="7">
         <v>43466</v>
       </c>
-      <c r="C3" s="1">
+      <c r="D4" s="7">
         <v>43497</v>
       </c>
-      <c r="D3" s="1">
+      <c r="E4" s="7">
         <v>43525</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F4" s="7">
+        <v>43556</v>
+      </c>
+      <c r="G4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F3" t="s">
+      <c r="H4" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+    <row r="5" spans="2:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
         <v>2</v>
       </c>
-      <c r="B4">
+      <c r="C5" s="2">
         <v>1000</v>
       </c>
-      <c r="C4">
+      <c r="D5" s="2">
         <v>1000</v>
       </c>
-      <c r="D4">
+      <c r="E5" s="2">
         <v>1000</v>
       </c>
-      <c r="E4">
-        <f>SUM(B4:D4)</f>
+      <c r="F5" s="2">
+        <v>1100</v>
+      </c>
+      <c r="G5" s="2">
+        <f>SUM(C5:F5)</f>
+        <v>4100</v>
+      </c>
+      <c r="H5" s="4">
+        <f>G5/$G$11</f>
+        <v>0.57023643949930458</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="3">
+        <v>125</v>
+      </c>
+      <c r="D6" s="3">
+        <v>125</v>
+      </c>
+      <c r="E6" s="3">
+        <v>100</v>
+      </c>
+      <c r="F6" s="3">
+        <v>125</v>
+      </c>
+      <c r="G6" s="3">
+        <f>SUM(C6:F6)</f>
+        <v>475</v>
+      </c>
+      <c r="H6" s="4">
+        <f>G6/$G$11</f>
+        <v>6.6063977746870658E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="3">
+        <v>50</v>
+      </c>
+      <c r="D7" s="3">
+        <v>50</v>
+      </c>
+      <c r="E7" s="3">
+        <v>50</v>
+      </c>
+      <c r="F7" s="3">
+        <v>40</v>
+      </c>
+      <c r="G7" s="3">
+        <f>SUM(C7:F7)</f>
+        <v>190</v>
+      </c>
+      <c r="H7" s="4">
+        <f>G7/$G$11</f>
+        <v>2.6425591098748261E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="3">
+        <v>150</v>
+      </c>
+      <c r="D8" s="3">
+        <v>200</v>
+      </c>
+      <c r="E8" s="3">
+        <v>175</v>
+      </c>
+      <c r="F8" s="3">
+        <v>150</v>
+      </c>
+      <c r="G8" s="3">
+        <f>SUM(C8:F8)</f>
+        <v>675</v>
+      </c>
+      <c r="H8" s="4">
+        <f>G8/$G$11</f>
+        <v>9.3880389429763567E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="3">
+        <v>300</v>
+      </c>
+      <c r="D9" s="3">
+        <v>275</v>
+      </c>
+      <c r="E9" s="3">
+        <v>350</v>
+      </c>
+      <c r="F9" s="3">
+        <v>400</v>
+      </c>
+      <c r="G9" s="3">
+        <f>SUM(C9:F9)</f>
+        <v>1325</v>
+      </c>
+      <c r="H9" s="4">
+        <f>G9/$G$11</f>
+        <v>0.18428372739916551</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="3">
+        <v>100</v>
+      </c>
+      <c r="D10" s="3">
+        <v>100</v>
+      </c>
+      <c r="E10" s="3">
+        <v>125</v>
+      </c>
+      <c r="F10" s="3">
+        <v>100</v>
+      </c>
+      <c r="G10" s="3">
+        <f>SUM(C10:F10)</f>
+        <v>425</v>
+      </c>
+      <c r="H10" s="4">
+        <f>G10/$G$11</f>
+        <v>5.9109874826147428E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="2">
+        <f>SUM(C5:C10)</f>
+        <v>1725</v>
+      </c>
+      <c r="D11" s="2">
+        <f>SUM(D5:D10)</f>
+        <v>1750</v>
+      </c>
+      <c r="E11" s="2">
+        <f>SUM(E5:E10)</f>
+        <v>1800</v>
+      </c>
+      <c r="F11" s="2">
+        <f>SUM(F5:F10)</f>
+        <v>1915</v>
+      </c>
+      <c r="G11" s="2">
+        <f>SUM(G5:G10)</f>
+        <v>7190</v>
+      </c>
+      <c r="H11" s="4">
+        <f>G11/$G$11</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B13" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13">
+        <f>MIN(C5:C10)</f>
+        <v>50</v>
+      </c>
+      <c r="D13">
+        <f>MIN(D5:D10)</f>
+        <v>50</v>
+      </c>
+      <c r="E13">
+        <f>MIN(E5:E10)</f>
+        <v>50</v>
+      </c>
+      <c r="F13">
+        <f>MIN(F5:F10)</f>
+        <v>40</v>
+      </c>
+      <c r="G13">
+        <f>MIN(G5:G10)</f>
+        <v>190</v>
+      </c>
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B14" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14">
+        <f>MAX(C5:C10)</f>
+        <v>1000</v>
+      </c>
+      <c r="D14">
+        <f t="shared" ref="D14:G14" si="0">MAX(D5:D10)</f>
+        <v>1000</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
+      <c r="F14">
+        <f t="shared" ref="F14" si="1">MAX(F5:F10)</f>
+        <v>1100</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="0"/>
+        <v>4100</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B15" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15">
+        <f>AVERAGE(C5:C10)</f>
+        <v>287.5</v>
+      </c>
+      <c r="D15">
+        <f>AVERAGE(D5:D10)</f>
+        <v>291.66666666666669</v>
+      </c>
+      <c r="E15">
+        <f>AVERAGE(E5:E10)</f>
+        <v>300</v>
+      </c>
+      <c r="F15">
+        <f>AVERAGE(F5:F10)</f>
+        <v>319.16666666666669</v>
+      </c>
+      <c r="G15">
+        <f>AVERAGE(G5:G10)</f>
+        <v>1198.3333333333333</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B16" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16">
+        <f>COUNT(C5:C10)</f>
+        <v>6</v>
+      </c>
+      <c r="D16">
+        <f>COUNT(D5:D10)</f>
+        <v>6</v>
+      </c>
+      <c r="E16">
+        <f>COUNT(E5:E10)</f>
+        <v>6</v>
+      </c>
+      <c r="F16">
+        <f>COUNT(F5:F10)</f>
+        <v>6</v>
+      </c>
+      <c r="G16">
+        <f>COUNT(G5:G10)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K18" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:H2"/>
+  </mergeCells>
+  <conditionalFormatting sqref="C5:F10">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
+      <formula>250</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="B4:F16" formulaRange="1"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42118351-5AB9-490F-BC92-4DA7E47175A5}">
+  <dimension ref="B2:G15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:G15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1">
+        <v>43466</v>
+      </c>
+      <c r="D4" s="1">
+        <v>43497</v>
+      </c>
+      <c r="E4" s="1">
+        <v>43525</v>
+      </c>
+      <c r="F4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>1000</v>
+      </c>
+      <c r="D5">
+        <v>1000</v>
+      </c>
+      <c r="E5">
+        <v>1000</v>
+      </c>
+      <c r="F5">
+        <f>SUM(C5:E5)</f>
         <v>3000</v>
       </c>
-      <c r="F4">
-        <f>E4/$E$9</f>
+      <c r="G5">
+        <f>F5/$F$10</f>
         <v>0.58536585365853655</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
         <v>3</v>
       </c>
-      <c r="B5">
+      <c r="C6">
         <v>125</v>
       </c>
-      <c r="C5">
+      <c r="D6">
         <v>125</v>
       </c>
-      <c r="D5">
+      <c r="E6">
         <v>100</v>
       </c>
-      <c r="E5">
-        <f t="shared" ref="E5:E8" si="0">SUM(B5:D5)</f>
+      <c r="F6">
+        <f t="shared" ref="F6:F9" si="0">SUM(C6:E6)</f>
         <v>350</v>
       </c>
-      <c r="F5">
-        <f t="shared" ref="F5:F9" si="1">E5/$E$9</f>
+      <c r="G6">
+        <f>F6/$F$10</f>
         <v>6.8292682926829273E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
         <v>4</v>
       </c>
-      <c r="B6">
+      <c r="C7">
         <v>150</v>
       </c>
-      <c r="C6">
+      <c r="D7">
         <v>200</v>
       </c>
-      <c r="D6">
+      <c r="E7">
         <v>175</v>
       </c>
-      <c r="E6">
+      <c r="F7">
         <f t="shared" si="0"/>
         <v>525</v>
       </c>
-      <c r="F6">
-        <f t="shared" si="1"/>
+      <c r="G7">
+        <f>F7/$F$10</f>
         <v>0.1024390243902439</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
         <v>5</v>
       </c>
-      <c r="B7">
+      <c r="C8">
         <v>300</v>
       </c>
-      <c r="C7">
+      <c r="D8">
         <v>275</v>
       </c>
-      <c r="D7">
+      <c r="E8">
         <v>350</v>
       </c>
-      <c r="E7">
+      <c r="F8">
         <f t="shared" si="0"/>
         <v>925</v>
       </c>
-      <c r="F7">
-        <f t="shared" si="1"/>
+      <c r="G8">
+        <f>F8/$F$10</f>
         <v>0.18048780487804877</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
         <v>6</v>
       </c>
-      <c r="B8">
+      <c r="C9">
         <v>100</v>
       </c>
-      <c r="C8">
+      <c r="D9">
         <v>100</v>
       </c>
-      <c r="D8">
+      <c r="E9">
         <v>125</v>
       </c>
-      <c r="E8">
+      <c r="F9">
         <f t="shared" si="0"/>
         <v>325</v>
       </c>
-      <c r="F8">
+      <c r="G9">
+        <f>F9/$F$10</f>
+        <v>6.3414634146341464E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10">
+        <f>SUM(C5:C9)</f>
+        <v>1675</v>
+      </c>
+      <c r="D10">
+        <f t="shared" ref="D10:F10" si="1">SUM(D5:D9)</f>
+        <v>1700</v>
+      </c>
+      <c r="E10">
         <f t="shared" si="1"/>
-        <v>6.3414634146341464E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <f>SUM(B4:B8)</f>
-        <v>1675</v>
-      </c>
-      <c r="C9">
-        <f t="shared" ref="C9:E9" si="2">SUM(C4:C8)</f>
-        <v>1700</v>
-      </c>
-      <c r="D9">
+        <v>1750</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="1"/>
+        <v>5125</v>
+      </c>
+      <c r="G10">
+        <f>F10/$F$10</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12">
+        <f>MIN(C5:C9)</f>
+        <v>100</v>
+      </c>
+      <c r="D12">
+        <f>MIN(D5:D9)</f>
+        <v>100</v>
+      </c>
+      <c r="E12">
+        <f>MIN(E5:E9)</f>
+        <v>100</v>
+      </c>
+      <c r="F12">
+        <f>MIN(F5:F9)</f>
+        <v>325</v>
+      </c>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13">
+        <f>MAX(C5:C9)</f>
+        <v>1000</v>
+      </c>
+      <c r="D13">
+        <f t="shared" ref="D13:F13" si="2">MAX(D5:D9)</f>
+        <v>1000</v>
+      </c>
+      <c r="E13">
         <f t="shared" si="2"/>
-        <v>1750</v>
-      </c>
-      <c r="E9">
+        <v>1000</v>
+      </c>
+      <c r="F13">
         <f t="shared" si="2"/>
-        <v>5125</v>
-      </c>
-      <c r="F9">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <f>MIN(B4:B8)</f>
-        <v>100</v>
-      </c>
-      <c r="C11">
-        <f>MIN(C4:C8)</f>
-        <v>100</v>
-      </c>
-      <c r="D11">
-        <f>MIN(D4:D8)</f>
-        <v>100</v>
-      </c>
-      <c r="E11">
-        <f>MIN(E4:E8)</f>
-        <v>325</v>
-      </c>
-      <c r="F11" s="1"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12">
-        <f>MAX(B4:B8)</f>
-        <v>1000</v>
-      </c>
-      <c r="C12">
-        <f t="shared" ref="C12:E12" si="3">MAX(C4:C8)</f>
-        <v>1000</v>
-      </c>
-      <c r="D12">
-        <f t="shared" si="3"/>
-        <v>1000</v>
-      </c>
-      <c r="E12">
-        <f t="shared" si="3"/>
         <v>3000</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
         <v>11</v>
       </c>
-      <c r="B13">
-        <f>AVERAGE(B4:B8)</f>
+      <c r="C14">
+        <f>AVERAGE(C5:C9)</f>
         <v>335</v>
       </c>
-      <c r="C13">
-        <f>AVERAGE(C4:C8)</f>
+      <c r="D14">
+        <f>AVERAGE(D5:D9)</f>
         <v>340</v>
       </c>
-      <c r="D13">
-        <f>AVERAGE(D4:D8)</f>
+      <c r="E14">
+        <f>AVERAGE(E5:E9)</f>
         <v>350</v>
       </c>
-      <c r="E13">
-        <f>AVERAGE(E4:E8)</f>
+      <c r="F14">
+        <f>AVERAGE(F5:F9)</f>
         <v>1025</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
         <v>12</v>
       </c>
-      <c r="B14">
-        <f>COUNT(B4:B8)</f>
+      <c r="C15">
+        <f>COUNT(C5:C9)</f>
         <v>5</v>
       </c>
-      <c r="C14">
-        <f>COUNT(C4:C8)</f>
+      <c r="D15">
+        <f>COUNT(D5:D9)</f>
         <v>5</v>
       </c>
-      <c r="D14">
-        <f>COUNT(D4:D8)</f>
+      <c r="E15">
+        <f>COUNT(E5:E9)</f>
         <v>5</v>
       </c>
-      <c r="E14">
-        <f>COUNT(E4:E8)</f>
+      <c r="F15">
+        <f>COUNT(F5:F9)</f>
         <v>5</v>
       </c>
-    </row>
-    <row r="17" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J17" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
-  <ignoredErrors>
-    <ignoredError sqref="B10:D14 B3:F3 B5:D8 B4:D4" formulaRange="1"/>
-  </ignoredErrors>
 </worksheet>
 </file>